--- a/Team-Data/2008-09/2-20-2008-09.xlsx
+++ b/Team-Data/2008-09/2-20-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.582</v>
+        <v>0.593</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -696,28 +763,28 @@
         <v>20.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P2" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.735</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V2" t="n">
         <v>12.9</v>
@@ -732,19 +799,19 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -756,28 +823,28 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -786,34 +853,34 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.782</v>
+        <v>0.786</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.3</v>
@@ -872,64 +939,64 @@
         <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,34 +1005,34 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>5.8</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N4" t="n">
         <v>0.364</v>
@@ -1066,22 +1133,22 @@
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
         <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>15.5</v>
@@ -1093,7 +1160,7 @@
         <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>22.3</v>
@@ -1102,22 +1169,22 @@
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,16 +1193,16 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
@@ -1153,19 +1220,19 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1294,10 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.451</v>
@@ -1239,31 +1306,31 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
         <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.788</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
         <v>15.1</v>
@@ -1275,22 +1342,22 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1317,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
@@ -1326,13 +1393,13 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1347,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,13 +1426,13 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -1397,88 +1464,88 @@
         <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U6" t="n">
         <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1496,25 +1563,25 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1529,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
@@ -1538,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.593</v>
+        <v>0.604</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
         <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
@@ -1606,34 +1673,34 @@
         <v>19.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1648,25 +1715,25 @@
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1696,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1726,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,7 +1843,7 @@
         <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
@@ -1785,28 +1852,28 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>10.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
@@ -1824,28 +1891,28 @@
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1887,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1905,13 +1972,13 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2054,7 +2121,7 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>14</v>
@@ -2242,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>15</v>
@@ -2263,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.618</v>
+        <v>0.611</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
         <v>0.445</v>
@@ -2331,34 +2398,34 @@
         <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P11" t="n">
         <v>24.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,7 +2434,7 @@
         <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
         <v>18.9</v>
@@ -2376,25 +2443,25 @@
         <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2403,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2412,13 +2479,13 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2430,19 +2497,19 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J12" t="n">
         <v>86</v>
@@ -2513,10 +2580,10 @@
         <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,7 +2592,7 @@
         <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
@@ -2543,10 +2610,10 @@
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2555,16 +2622,16 @@
         <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2573,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2773,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
@@ -2794,22 +2861,22 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -2862,34 +2929,34 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.8</v>
@@ -2898,37 +2965,37 @@
         <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J15" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
@@ -3062,55 +3129,55 @@
         <v>13.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
         <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="U15" t="n">
         <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>4.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3128,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -3146,19 +3213,19 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>18</v>
@@ -3340,13 +3407,13 @@
         <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3423,28 +3490,28 @@
         <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
@@ -3459,19 +3526,19 @@
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3486,16 +3553,16 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3528,16 +3595,16 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,28 +3663,28 @@
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
         <v>19.2</v>
       </c>
       <c r="P18" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.766</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
@@ -3632,10 +3699,10 @@
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3647,16 +3714,16 @@
         <v>21.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3689,13 +3756,13 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>4</v>
@@ -3707,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.429</v>
+        <v>0.436</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
         <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O19" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
         <v>40.5</v>
       </c>
       <c r="U19" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V19" t="n">
         <v>13.4</v>
@@ -3820,31 +3887,31 @@
         <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
         <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3868,19 +3935,19 @@
         <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
@@ -3895,10 +3962,10 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.604</v>
+        <v>0.615</v>
       </c>
       <c r="H20" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.384</v>
       </c>
       <c r="O20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P20" t="n">
         <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T20" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,37 +4075,37 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8</v>
       </c>
-      <c r="AG20" t="n">
-        <v>9</v>
-      </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -4065,10 +4132,10 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU20" t="n">
         <v>27</v>
@@ -4089,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>0.426</v>
+        <v>0.415</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O21" t="n">
         <v>17.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.799</v>
+        <v>0.796</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T21" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.6</v>
+        <v>105.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4238,7 +4305,7 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4247,10 +4314,10 @@
         <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
-        <v>0.236</v>
+        <v>0.241</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.373</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
         <v>20.1</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R22" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="n">
         <v>30.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>6.8</v>
@@ -4372,19 +4439,19 @@
         <v>5.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4405,16 +4472,16 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4423,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4435,28 +4502,28 @@
         <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.458</v>
@@ -4515,10 +4582,10 @@
         <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.394</v>
+        <v>0.396</v>
       </c>
       <c r="O23" t="n">
         <v>19.8</v>
@@ -4527,7 +4594,7 @@
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
@@ -4536,7 +4603,7 @@
         <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
@@ -4545,13 +4612,13 @@
         <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
@@ -4560,13 +4627,13 @@
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4590,7 +4657,7 @@
         <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,7 +4830,7 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
@@ -4772,7 +4839,7 @@
         <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4784,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4796,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4808,16 +4875,16 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
@@ -4891,7 +4958,7 @@
         <v>27.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>10.1</v>
@@ -4903,13 +4970,13 @@
         <v>42</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.8</v>
@@ -4921,22 +4988,22 @@
         <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4948,49 +5015,49 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.642</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
@@ -5064,31 +5131,31 @@
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
         <v>24.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
         <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5103,16 +5170,16 @@
         <v>21.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,13 +5194,13 @@
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,13 +5230,13 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
         <v>12</v>
@@ -5181,13 +5248,13 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,28 +5301,28 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
         <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
@@ -5276,7 +5343,7 @@
         <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
@@ -5285,16 +5352,16 @@
         <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5318,10 +5385,10 @@
         <v>24</v>
       </c>
       <c r="AL27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM27" t="n">
         <v>15</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>14</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
@@ -5330,28 +5397,28 @@
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,7 +5552,7 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5497,10 +5564,10 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
         <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.368</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,10 +5665,10 @@
         <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
@@ -5610,7 +5677,7 @@
         <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
         <v>18.7</v>
@@ -5619,34 +5686,34 @@
         <v>22.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.828</v>
       </c>
       <c r="R29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA29" t="n">
         <v>20.5</v>
@@ -5655,10 +5722,10 @@
         <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5673,13 +5740,13 @@
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5688,13 +5755,13 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5712,22 +5779,22 @@
         <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>16</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
@@ -5944,97 +6011,97 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.236</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O31" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q31" t="n">
         <v>0.763</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="U31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y31" t="n">
         <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6073,13 +6140,13 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2008-09</t>
+          <t>2009-02-20</t>
         </is>
       </c>
     </row>
